--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-recency-test-result.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-03T11:24:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-recency-test-result.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-recency-test-result.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:24:23+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-recency-test-result.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-recency-test-result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -865,10 +865,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -879,9 +875,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1405,6 +1398,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -4594,7 +4591,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
@@ -4609,19 +4606,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4665,7 +4662,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>272</v>
@@ -4677,7 +4674,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4686,37 +4683,37 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>272</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -4734,16 +4731,16 @@
         <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4772,7 +4769,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4799,7 +4796,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4808,27 +4805,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4854,16 +4851,16 @@
         <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4888,14 +4885,14 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4912,7 +4909,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4921,7 +4918,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4936,7 +4933,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4947,21 +4944,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4976,16 +4973,16 @@
         <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5014,7 +5011,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5032,7 +5029,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5050,27 +5047,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5093,19 +5090,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5154,7 +5151,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5175,10 +5172,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5189,10 +5186,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5218,13 +5215,13 @@
         <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5250,14 +5247,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5292,27 +5289,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5338,16 +5335,16 @@
         <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5372,13 +5369,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5396,7 +5393,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5417,10 +5414,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5431,10 +5428,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5457,16 +5454,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5516,7 +5513,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5534,27 +5531,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5577,16 +5574,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5636,7 +5633,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5654,27 +5651,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5697,19 +5694,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5758,7 +5755,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5770,19 +5767,19 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5793,10 +5790,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5819,13 +5816,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5876,7 +5873,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5900,7 +5897,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5911,10 +5908,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5943,7 +5940,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -5996,7 +5993,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6020,7 +6017,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6031,14 +6028,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6060,10 +6057,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6118,7 +6115,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6153,10 +6150,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6179,13 +6176,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6236,7 +6233,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6245,7 +6242,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6257,10 +6254,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6271,10 +6268,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6297,13 +6294,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6354,7 +6351,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6363,7 +6360,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6375,10 +6372,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6389,10 +6386,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6418,16 +6415,16 @@
         <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6455,10 +6452,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6476,7 +6473,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6494,13 +6491,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6511,10 +6508,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6540,16 +6537,16 @@
         <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6574,13 +6571,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6598,7 +6595,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6616,13 +6613,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6633,10 +6630,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6659,17 +6656,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6718,7 +6715,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6742,7 +6739,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6753,10 +6750,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6779,13 +6776,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6836,7 +6833,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6857,10 +6854,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6871,10 +6868,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6897,16 +6894,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6956,7 +6953,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6977,10 +6974,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6991,10 +6988,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7017,16 +7014,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7076,7 +7073,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7097,10 +7094,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7111,10 +7108,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7137,19 +7134,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7198,7 +7195,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7219,10 +7216,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7233,10 +7230,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7259,13 +7256,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7316,7 +7313,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7340,7 +7337,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7351,10 +7348,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7383,7 +7380,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7436,7 +7433,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7460,7 +7457,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7471,14 +7468,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7500,10 +7497,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7558,7 +7555,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7593,10 +7590,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7622,13 +7619,13 @@
         <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>205</v>
@@ -7656,13 +7653,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7680,7 +7677,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7698,7 +7695,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>209</v>
@@ -7715,10 +7712,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7741,19 +7738,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7802,7 +7799,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7820,27 +7817,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7866,16 +7863,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7900,14 +7897,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -7924,7 +7921,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7933,7 +7930,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7948,7 +7945,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -7959,14 +7956,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7988,16 +7985,16 @@
         <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8022,14 +8019,14 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8046,7 +8043,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8064,27 +8061,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8110,16 +8107,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8168,7 +8165,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8189,10 +8186,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
